--- a/source/Vita.Predictor/TextClassifiers/SpreadSheets/keywords.xlsx
+++ b/source/Vita.Predictor/TextClassifiers/SpreadSheets/keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\vita\source\Vita.Domain\Services\TextClassifiers\SpreadSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\vita\source\Vita.Predictor\TextClassifiers\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09C4493F-9B42-4F8C-8AF3-76F781DCFD95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16DFADEA-01A6-4CE8-AB15-E480AF79A308}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="948" firstSheet="1" activeTab="1" xr2:uid="{FCF0BCC7-E07F-42CD-B0A6-8479CEAB5437}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="948" firstSheet="1" activeTab="13" xr2:uid="{FCF0BCC7-E07F-42CD-B0A6-8479CEAB5437}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="2496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="2500">
   <si>
     <t xml:space="preserve">Go to each sheet and enter as many keywords to classify a bank transaction .  
 The top column header is the SUB CATEGORY for that keyword
@@ -7531,6 +7531,18 @@
   </si>
   <si>
     <t>pension</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>gifts</t>
   </si>
 </sst>
 </file>
@@ -7638,7 +7650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -7717,13 +7729,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF1177BB"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -7780,6 +7801,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9100,15 +9125,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFB32F4-EA95-467F-80E8-E77A856E67D9}">
-  <dimension ref="A1:F396"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -9127,8 +9152,11 @@
       <c r="F1" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>275</v>
       </c>
@@ -9147,8 +9175,11 @@
       <c r="F2" s="10" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="25" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1545</v>
       </c>
@@ -9167,8 +9198,11 @@
       <c r="F3" s="10" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="26" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1544</v>
       </c>
@@ -9187,8 +9221,11 @@
       <c r="F4" s="10" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="25" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>276</v>
       </c>
@@ -9208,7 +9245,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>277</v>
       </c>
@@ -9228,7 +9265,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>278</v>
       </c>
@@ -9246,7 +9283,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>279</v>
       </c>
@@ -9262,7 +9299,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>280</v>
       </c>
@@ -9278,7 +9315,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>1543</v>
       </c>
@@ -9294,7 +9331,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>1542</v>
       </c>
@@ -9310,7 +9347,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>281</v>
       </c>
@@ -9326,7 +9363,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>282</v>
       </c>
@@ -9342,7 +9379,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>283</v>
       </c>
@@ -9356,7 +9393,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>284</v>
       </c>
@@ -9370,7 +9407,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>285</v>
       </c>
@@ -14614,7 +14651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8300948-E362-4088-A1AC-1C8B11633438}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>

--- a/source/Vita.Predictor/TextClassifiers/SpreadSheets/keywords.xlsx
+++ b/source/Vita.Predictor/TextClassifiers/SpreadSheets/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\vita\source\Vita.Predictor\TextClassifiers\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F03882DC-8826-4257-80B3-04CAF1C0C114}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1787C4F6-BE56-44A1-85CD-FFAA98A66B00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="948" firstSheet="1" activeTab="3" xr2:uid="{FCF0BCC7-E07F-42CD-B0A6-8479CEAB5437}"/>
   </bookViews>
@@ -18793,7 +18793,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
